--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_0_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_0_28.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61072.68991218067</v>
+        <v>4443787.454638921</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61072.68991218067</v>
+        <v>4443787.454638921</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608967026.091172</v>
+        <v>61216348.24007186</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14058.75853343289</v>
+        <v>1322345.892349224</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28117.51706686578</v>
+        <v>2644691.784698448</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42176.27560029867</v>
+        <v>3967037.677047674</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59034.83285141794</v>
+        <v>5070033.440303049</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74574.52592624386</v>
+        <v>6311766.643522304</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>90114.2190010698</v>
+        <v>7553499.846741554</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>105653.9120758957</v>
+        <v>8795233.049960801</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>121193.6051507217</v>
+        <v>10036966.25318005</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138052.1624018382</v>
+        <v>11139962.01643576</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>153591.8554766455</v>
+        <v>12381695.21965715</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>169131.548551463</v>
+        <v>13623428.42287736</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>184671.2416262752</v>
+        <v>14865161.62609837</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>200210.9347010825</v>
+        <v>16106894.82931977</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>216520.849504504</v>
+        <v>17265393.4657287</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>236513.7753640694</v>
+        <v>17968797.65429002</v>
       </c>
     </row>
   </sheetData>
